--- a/biology/Botanique/Nesoluma/Nesoluma.xlsx
+++ b/biology/Botanique/Nesoluma/Nesoluma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nesoluma est un genre de plantes à fleurs de la famille des Sapotaceae, comptant trois espèces. Ce sont des arbres originaires de Polynésie.
-Selon Plants of the World Online, ce taxon est un synonyme de Sideroxylon[1].
+Selon Plants of the World Online, ce taxon est un synonyme de Sideroxylon.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Nesoluma nadeaudii  (Drake) Pierre ex H.J.Lam  -  Présente en Polynésie française
 Nesoluma polynesicum (Hillebr.) Baill - dite Keahi, présente dans les Îles Cook, à Tubuai et  Hawaï</t>
@@ -543,7 +557,9 @@
           <t>Espèce anciennement placée dans ce genre</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Sideroxylon st-johnianum (H.J.Lam &amp; B.Meeuse) Smedmark &amp; Anderb., en tant que Nesoluma st-johnianum H.J.Lam &amp; B.Meeuse</t>
         </is>
@@ -574,6 +590,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -600,6 +618,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
